--- a/src/parcurs_template.xlsx
+++ b/src/parcurs_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\Python\Indexer_UI\generated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\Python\Indexer_UI\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -56,7 +56,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0000000"/>
-    <numFmt numFmtId="166" formatCode="00"/>
+    <numFmt numFmtId="165" formatCode="00"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -133,22 +133,22 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,12 +508,12 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
       <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:13" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -536,17 +536,17 @@
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
       <c r="K6" s="5"/>
-      <c r="L6" s="14" t="s">
+      <c r="L6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="8"/>
+      <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -574,10 +574,10 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -642,32 +642,32 @@
     </row>
     <row r="13" spans="1:13" ht="6.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="10" t="e">
+      <c r="B13" s="8" t="e">
         <f>#REF!&amp;" "&amp;[1]Borderopluciu!G24</f>
         <v>#REF!</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="12">
+      <c r="K13" s="11">
         <v>968800</v>
       </c>
-      <c r="L13" s="8"/>
+      <c r="L13" s="9"/>
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
